--- a/spliced/struggle/2023-04-06_18-01-11/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-04-06_18-01-11/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.675201347896034</v>
+        <v>3.055751519543784</v>
       </c>
       <c r="B2" t="n">
-        <v>-6.581202302660263</v>
+        <v>-7.220968450818743</v>
       </c>
       <c r="C2" t="n">
-        <v>2.435893160956232</v>
+        <v>-2.894419597727912</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8038081441606844</v>
+        <v>2.955562557492938</v>
       </c>
       <c r="B3" t="n">
-        <v>-7.229396700859067</v>
+        <v>-7.134888444628034</v>
       </c>
       <c r="C3" t="n">
-        <v>1.553160754697669</v>
+        <v>-2.944399050303869</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.023633156503948</v>
+        <v>2.833344757556915</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.972137170178557</v>
+        <v>-7.338198423385621</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.916851524795791</v>
+        <v>-2.509933024644852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3411836709295031</v>
+        <v>3.108331612178258</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.24002621429307</v>
+        <v>-7.027578847748893</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.904611808913096</v>
+        <v>-2.627250722476415</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.6227953433990485</v>
+        <v>3.771172387259348</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.929600954055787</v>
+        <v>-7.547038768018995</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.7005569934845</v>
+        <v>-3.545775217669351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.2611346755709001</v>
+        <v>2.675201347896034</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.176580480166844</v>
+        <v>-6.581202302660263</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.08990749291009</v>
+        <v>2.435893160956232</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.22266825607841</v>
+        <v>0.8038081441606844</v>
       </c>
       <c r="B8" t="n">
-        <v>-7.398067985262175</v>
+        <v>-7.229396700859067</v>
       </c>
       <c r="C8" t="n">
-        <v>-7.469464063644459</v>
+        <v>1.553160754697669</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17.43506016050075</v>
+        <v>1.023633156503948</v>
       </c>
       <c r="B9" t="n">
-        <v>-11.15922947440832</v>
+        <v>-4.972137170178557</v>
       </c>
       <c r="C9" t="n">
-        <v>8.020842296736639</v>
+        <v>-3.916851524795791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.810774190085277</v>
+        <v>0.3411836709295031</v>
       </c>
       <c r="B10" t="n">
-        <v>-6.605375971112934</v>
+        <v>-4.24002621429307</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3875993319920126</v>
+        <v>-5.904611808913096</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.291332300220217</v>
+        <v>-0.6227953433990485</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.354068347385952</v>
+        <v>-4.929600954055787</v>
       </c>
       <c r="C11" t="n">
-        <v>1.089433806283133</v>
+        <v>-6.7005569934845</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.138020081179482</v>
+        <v>-0.2611346755709001</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.129925046648298</v>
+        <v>-5.176580480166844</v>
       </c>
       <c r="C12" t="n">
-        <v>3.955937453678676</v>
+        <v>-11.08990749291009</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.258425533771516</v>
+        <v>7.22266825607841</v>
       </c>
       <c r="B13" t="n">
-        <v>-4.712551474571227</v>
+        <v>-7.398067985262175</v>
       </c>
       <c r="C13" t="n">
-        <v>5.692880451679232</v>
+        <v>-7.469464063644459</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-3.766383392470183</v>
+        <v>17.43506016050075</v>
       </c>
       <c r="B14" t="n">
-        <v>-8.431432792118596</v>
+        <v>-11.15922947440832</v>
       </c>
       <c r="C14" t="n">
-        <v>7.765124661581846</v>
+        <v>8.020842296736639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.177985225405012</v>
+        <v>4.810774190085277</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.925881973334721</v>
+        <v>-6.605375971112934</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.60967251232692</v>
+        <v>0.3875993319920126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.052592243467076</v>
+        <v>3.291332300220217</v>
       </c>
       <c r="B16" t="n">
-        <v>-3.166507703917357</v>
+        <v>-5.354068347385952</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.040607401302906</v>
+        <v>1.089433806283133</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.074721106461116</v>
+        <v>3.138020081179482</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.308761754206249</v>
+        <v>-6.129925046648298</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.224646031856537</v>
+        <v>3.955937453678676</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.158144678388323</v>
+        <v>3.258425533771516</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.9557591165815</v>
+        <v>-4.712551474571227</v>
       </c>
       <c r="C18" t="n">
-        <v>-8.491945947919575</v>
+        <v>5.692880451679232</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.7903139420917948</v>
+        <v>-3.766383392470183</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.482765521321981</v>
+        <v>-8.431432792118596</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.279002168348867</v>
+        <v>7.765124661581846</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4.010212659835815</v>
+        <v>1.177985225405012</v>
       </c>
       <c r="B20" t="n">
-        <v>-5.284669637680054</v>
+        <v>-3.925881973334721</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.184034883975983</v>
+        <v>-4.60967251232692</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>1.052592243467076</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-3.166507703917357</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-6.040607401302906</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.074721106461116</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-3.308761754206249</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-6.224646031856537</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.158144678388323</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-3.9557591165815</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-8.491945947919575</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.7903139420917948</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-5.482765521321981</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.279002168348867</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>4.010212659835815</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-5.284669637680054</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.184034883975983</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>2.293728096144541</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>-7.460245260170529</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>0.3245020040443973</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.675990547452653</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-6.526311159133912</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.6771522419793252</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.116939672401965</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-5.273013770580299</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.711685695818474</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.304866858891079</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-5.722443546567645</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-4.230944650513785</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.380605901990617</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-5.519177751881738</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-4.144632569381169</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2.426761286599295</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-5.405185426984516</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.328171287264147</v>
       </c>
     </row>
   </sheetData>
